--- a/final/weekly_poll_margin.xlsx
+++ b/final/weekly_poll_margin.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meInspiron\Desktop\ipl_polls\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7D068-D6E0-4E0C-A550-EB3D2F8C4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4B75A-835E-4581-9277-46BAADDAF159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33315BC7-FE13-4B47-AD11-5FFBB64D564A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week6" sheetId="8" r:id="rId1"/>
+    <sheet name="Week8" sheetId="10" r:id="rId1"/>
+    <sheet name="Week7" sheetId="9" r:id="rId2"/>
+    <sheet name="Week6" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week6!$B$5:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Week6!$B$5:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Week7!$B$5:$T$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week8!$B$5:$AB$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="198">
   <si>
     <t>Username</t>
   </si>
@@ -423,6 +427,216 @@
   </si>
   <si>
     <t>WEEZY F. Baby</t>
+  </si>
+  <si>
+    <t>Match #55</t>
+  </si>
+  <si>
+    <t>Match #56</t>
+  </si>
+  <si>
+    <t>Match #57</t>
+  </si>
+  <si>
+    <t>Match #58</t>
+  </si>
+  <si>
+    <t>Match #59</t>
+  </si>
+  <si>
+    <t>Match #60</t>
+  </si>
+  <si>
+    <t>Match #61</t>
+  </si>
+  <si>
+    <t>Match #62</t>
+  </si>
+  <si>
+    <t>DC vs SRH</t>
+  </si>
+  <si>
+    <t>MI vs GT</t>
+  </si>
+  <si>
+    <t>KKR vs CSK</t>
+  </si>
+  <si>
+    <t>DC vs GT</t>
+  </si>
+  <si>
+    <t>No Result</t>
+  </si>
+  <si>
+    <t>3 wickets</t>
+  </si>
+  <si>
+    <t>2 wickets</t>
+  </si>
+  <si>
+    <t>Match #63</t>
+  </si>
+  <si>
+    <t>Match #64</t>
+  </si>
+  <si>
+    <t>Match #65</t>
+  </si>
+  <si>
+    <t>Match #66</t>
+  </si>
+  <si>
+    <t>Match #67</t>
+  </si>
+  <si>
+    <t>Match #68</t>
+  </si>
+  <si>
+    <t>RCB vs KKR</t>
+  </si>
+  <si>
+    <t>PBKS vs RR</t>
+  </si>
+  <si>
+    <t>LSG vs SRH</t>
+  </si>
+  <si>
+    <t>CSK vs RR</t>
+  </si>
+  <si>
+    <t>MI vs DC</t>
+  </si>
+  <si>
+    <t>GT vs LSG</t>
+  </si>
+  <si>
+    <t>RCB vs SRH</t>
+  </si>
+  <si>
+    <t>DC vs PBKS</t>
+  </si>
+  <si>
+    <t>GT vs CSK</t>
+  </si>
+  <si>
+    <t>KKR vs SRH</t>
+  </si>
+  <si>
+    <t>10 runs</t>
+  </si>
+  <si>
+    <t>10 wickets</t>
+  </si>
+  <si>
+    <t>6 wickets</t>
+  </si>
+  <si>
+    <t>3-4W</t>
+  </si>
+  <si>
+    <t>7-8W</t>
+  </si>
+  <si>
+    <t>5-6W</t>
+  </si>
+  <si>
+    <t>1-2W</t>
+  </si>
+  <si>
+    <t>9-10W</t>
+  </si>
+  <si>
+    <t>oracle_priest</t>
+  </si>
+  <si>
+    <t>Sunny Paaji</t>
+  </si>
+  <si>
+    <t>Jason Duval</t>
+  </si>
+  <si>
+    <t>_simplet0n</t>
+  </si>
+  <si>
+    <t>ZePHyR</t>
+  </si>
+  <si>
+    <t>ashmrth</t>
+  </si>
+  <si>
+    <t>Ashmrth</t>
+  </si>
+  <si>
+    <t>darkwolf_newbie</t>
+  </si>
+  <si>
+    <t>Darkwolf</t>
+  </si>
+  <si>
+    <t>dhanda_</t>
+  </si>
+  <si>
+    <t>Hank Schrader</t>
+  </si>
+  <si>
+    <t>elprofesor6338</t>
+  </si>
+  <si>
+    <t>Èl Profesor™</t>
+  </si>
+  <si>
+    <t>ind_mafia_sahil</t>
+  </si>
+  <si>
+    <t>IND_Mafia_Sahil</t>
+  </si>
+  <si>
+    <t>indianduder</t>
+  </si>
+  <si>
+    <t>boring-life</t>
+  </si>
+  <si>
+    <t>milkanananaannanan</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Beluga</t>
+  </si>
+  <si>
+    <t>vinnu7980</t>
+  </si>
+  <si>
+    <t>Vinnu</t>
+  </si>
+  <si>
+    <t>Predict the Margin - Week 7: 5th May to 7th May, 17th May to 18th May</t>
+  </si>
+  <si>
+    <t>Predict the Margin - Week 8: 19th May to 25th May</t>
+  </si>
+  <si>
+    <t>59 runs</t>
+  </si>
+  <si>
+    <t>42 runs</t>
+  </si>
+  <si>
+    <t>33 runs</t>
+  </si>
+  <si>
+    <t>Match #69</t>
+  </si>
+  <si>
+    <t>Match #70</t>
+  </si>
+  <si>
+    <t>MI vs PBKS</t>
+  </si>
+  <si>
+    <t>LSG vs RCB</t>
   </si>
 </sst>
 </file>
@@ -496,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -749,11 +963,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,22 +1229,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,17 +1352,150 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF3FB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF3FB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF3FB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1266,11 +1867,4455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576260D4-E420-4A57-9C8C-F3B427E7AD92}">
+  <dimension ref="B1:AB50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="48"/>
+      <c r="V3" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="W3" s="48"/>
+      <c r="X3" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="29"/>
+      <c r="V4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="39"/>
+      <c r="AB4" s="26"/>
+    </row>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="40"/>
+      <c r="AB5" s="27"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="17"/>
+      <c r="AB6" s="12">
+        <f t="shared" ref="AB6:AB49" si="0">COUNTIF(F6:I6,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="18"/>
+      <c r="AB7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="18"/>
+      <c r="AB8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="18"/>
+      <c r="AB9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="18"/>
+      <c r="AB10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="18"/>
+      <c r="AB11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="18"/>
+      <c r="AB12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="18"/>
+      <c r="AB13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="18"/>
+      <c r="AB14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="18"/>
+      <c r="AB15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="18"/>
+      <c r="AB16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="18"/>
+      <c r="AB17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="18"/>
+      <c r="AB18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="18"/>
+      <c r="AB19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="18"/>
+      <c r="AB20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="18"/>
+      <c r="AB21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="18"/>
+      <c r="AB22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="18"/>
+      <c r="AB23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="18"/>
+      <c r="AB24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="18"/>
+      <c r="AB25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="18"/>
+      <c r="AB26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="18"/>
+      <c r="AB27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="18"/>
+      <c r="AB28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="18"/>
+      <c r="AB29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="18"/>
+      <c r="AB30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="18"/>
+      <c r="AB31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="18"/>
+      <c r="AB32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="18"/>
+      <c r="AB33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="18"/>
+      <c r="AB34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="18"/>
+      <c r="AB35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="18"/>
+      <c r="AB36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="18"/>
+      <c r="AB37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="18"/>
+      <c r="AB38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="18"/>
+      <c r="AB39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="18"/>
+      <c r="AB40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="18"/>
+      <c r="AB41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="18"/>
+      <c r="AB42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="18"/>
+      <c r="AB43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="18"/>
+      <c r="AB44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="18"/>
+      <c r="AB45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="18"/>
+      <c r="AB46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="18"/>
+      <c r="AB47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="18"/>
+      <c r="AB48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="18"/>
+      <c r="AB49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="19"/>
+      <c r="AB50" s="12">
+        <f>COUNTIF(F52:I52,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:E100 Z6:Z100">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 V1:V1048576 X1:X1048576">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>G1=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576 Y1:Y1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D60DDD-CCAF-40C8-878F-05BF0A5CE709}">
+  <dimension ref="B1:T50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="39"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="40"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="14">
+        <v>3</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>6</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" ref="T6:T49" si="0">COUNTIF(H6:Q6,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>6</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <v>3</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>3</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>3</v>
+      </c>
+      <c r="T10" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>3</v>
+      </c>
+      <c r="T11" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="23">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>3</v>
+      </c>
+      <c r="T12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="23">
+        <v>2</v>
+      </c>
+      <c r="C13" s="23">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>3</v>
+      </c>
+      <c r="T13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="23">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>3</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>3</v>
+      </c>
+      <c r="T15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>3</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="23">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3</v>
+      </c>
+      <c r="R17" s="18">
+        <v>3</v>
+      </c>
+      <c r="T17" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
+      <c r="R18" s="18">
+        <v>3</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="23">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
+        <v>3</v>
+      </c>
+      <c r="T19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="23">
+        <v>2</v>
+      </c>
+      <c r="C20" s="23">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
+        <v>3</v>
+      </c>
+      <c r="T20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="23">
+        <v>2</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
+        <v>3</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="23">
+        <v>3</v>
+      </c>
+      <c r="C22" s="23">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="23">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="23">
+        <v>3</v>
+      </c>
+      <c r="C24" s="23">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="23">
+        <v>3</v>
+      </c>
+      <c r="C25" s="23">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="23">
+        <v>3</v>
+      </c>
+      <c r="C26" s="23">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="23">
+        <v>3</v>
+      </c>
+      <c r="C27" s="23">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="23">
+        <v>3</v>
+      </c>
+      <c r="C28" s="23">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="23">
+        <v>3</v>
+      </c>
+      <c r="C29" s="23">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="23">
+        <v>3</v>
+      </c>
+      <c r="C30" s="23">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="23">
+        <v>3</v>
+      </c>
+      <c r="C31" s="23">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="23">
+        <v>3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="23">
+        <v>3</v>
+      </c>
+      <c r="C33" s="23">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="23">
+        <v>3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>17</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="23">
+        <v>3</v>
+      </c>
+      <c r="C35" s="23">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0</v>
+      </c>
+      <c r="T35" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="23">
+        <v>3</v>
+      </c>
+      <c r="C36" s="23">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="23">
+        <v>3</v>
+      </c>
+      <c r="C37" s="23">
+        <v>17</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="18">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="23">
+        <v>3</v>
+      </c>
+      <c r="C38" s="23">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="23">
+        <v>3</v>
+      </c>
+      <c r="C39" s="23">
+        <v>17</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="18">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="23">
+        <v>3</v>
+      </c>
+      <c r="C40" s="23">
+        <v>17</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="18">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="23">
+        <v>3</v>
+      </c>
+      <c r="C41" s="23">
+        <v>17</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="18">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="23">
+        <v>3</v>
+      </c>
+      <c r="C42" s="23">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="18">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="23">
+        <v>3</v>
+      </c>
+      <c r="C43" s="23">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="18">
+        <v>0</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="23">
+        <v>3</v>
+      </c>
+      <c r="C44" s="23">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="18">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="23">
+        <v>3</v>
+      </c>
+      <c r="C45" s="23">
+        <v>17</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="18">
+        <v>0</v>
+      </c>
+      <c r="T45" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="23">
+        <v>3</v>
+      </c>
+      <c r="C46" s="23">
+        <v>17</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="18">
+        <v>0</v>
+      </c>
+      <c r="T46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="23">
+        <v>3</v>
+      </c>
+      <c r="C47" s="23">
+        <v>17</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="23">
+        <v>3</v>
+      </c>
+      <c r="C48" s="23">
+        <v>17</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="18">
+        <v>0</v>
+      </c>
+      <c r="T48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="23">
+        <v>3</v>
+      </c>
+      <c r="C49" s="23">
+        <v>17</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="18">
+        <v>0</v>
+      </c>
+      <c r="T49" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B50" s="24">
+        <v>3</v>
+      </c>
+      <c r="C50" s="24">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0</v>
+      </c>
+      <c r="T50" s="12">
+        <f>COUNTIF(H52:Q52,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:E100 R6:R100">
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>G1=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE4DC2-69BD-48AC-8405-57716A5CFA89}">
   <dimension ref="B1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1299,147 +6344,147 @@
   <sheetData>
     <row r="1" spans="2:22" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="46" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="46" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="46" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="46" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="37" t="s">
+      <c r="S3" s="65"/>
+      <c r="T3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="27" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="71"/>
+      <c r="N4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="71"/>
+      <c r="P4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="27" t="s">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="38"/>
-      <c r="V4" s="30"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="56"/>
+      <c r="V4" s="69"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="67"/>
+      <c r="J5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="67"/>
+      <c r="N5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="25" t="s">
+      <c r="O5" s="67"/>
+      <c r="P5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="25" t="s">
+      <c r="Q5" s="67"/>
+      <c r="R5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="39"/>
-      <c r="V5" s="30"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="57"/>
+      <c r="V5" s="69"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="22">
@@ -4272,6 +9317,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -4288,34 +9345,22 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E50 T6:T50">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>G1=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
